--- a/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 104- Seaspan Raptor-ONEU9131754.xlsx
+++ b/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 104- Seaspan Raptor-ONEU9131754.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF0F64-76F4-AB49-BE1F-C66438C996D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EB34F5-A0C0-D449-92C6-DD0145ACC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{A1D9F9DE-7AA9-4A27-8F02-D3063413F418}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{A1D9F9DE-7AA9-4A27-8F02-D3063413F418}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -288,21 +288,6 @@
     </r>
   </si>
   <si>
-    <t>1826、1830、1851、1990</t>
-  </si>
-  <si>
-    <t>2008、2103、2003</t>
-  </si>
-  <si>
-    <t>2114、2119</t>
-  </si>
-  <si>
-    <t>2102、2111</t>
-  </si>
-  <si>
-    <t>2151、2158</t>
-  </si>
-  <si>
     <t>2.5kg</t>
   </si>
   <si>
@@ -330,6 +315,66 @@
   </si>
   <si>
     <t>3J</t>
+  </si>
+  <si>
+    <t>1511826</t>
+  </si>
+  <si>
+    <t>1511830</t>
+  </si>
+  <si>
+    <t>1511851</t>
+  </si>
+  <si>
+    <t>1511990</t>
+  </si>
+  <si>
+    <t>1512003</t>
+  </si>
+  <si>
+    <t>1512008</t>
+  </si>
+  <si>
+    <t>1512103</t>
+  </si>
+  <si>
+    <t>1512114</t>
+  </si>
+  <si>
+    <t>1512119</t>
+  </si>
+  <si>
+    <t>1512162</t>
+  </si>
+  <si>
+    <t>1512127</t>
+  </si>
+  <si>
+    <t>1512102</t>
+  </si>
+  <si>
+    <t>1512111</t>
+  </si>
+  <si>
+    <t>1512130</t>
+  </si>
+  <si>
+    <t>1512146</t>
+  </si>
+  <si>
+    <t>1512020</t>
+  </si>
+  <si>
+    <t>1512151</t>
+  </si>
+  <si>
+    <t>1512158</t>
+  </si>
+  <si>
+    <t>1512153</t>
+  </si>
+  <si>
+    <t>1512149</t>
   </si>
 </sst>
 </file>
@@ -928,7 +973,16 @@
     <xf numFmtId="174" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,16 +1027,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,17 +1417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9769FF9A-5C71-4945-9B6B-C799FE177CFD}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
@@ -1395,45 +1441,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:21" ht="17">
       <c r="A4" s="3" t="s">
@@ -1448,10 +1494,10 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="17">
@@ -1469,41 +1515,41 @@
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="74">
         <v>45307</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:21" ht="17">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:21" ht="17">
       <c r="A7" s="8"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="A8" s="13"/>
@@ -1515,15 +1561,15 @@
         <v>7</v>
       </c>
       <c r="G8" s="15">
-        <f>J34/G28</f>
-        <v>5.3287453491885071</v>
+        <f>J42/G36</f>
+        <v>4.9945469490404424</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickTop="1">
       <c r="A9" s="16" t="s">
@@ -1536,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>12</v>
@@ -1559,8 +1605,8 @@
       <c r="K9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="80" t="s">
-        <v>54</v>
+      <c r="L9" s="63" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17">
@@ -1574,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>21</v>
@@ -1606,33 +1652,33 @@
         <v>45309</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="81">
+        <v>55</v>
+      </c>
+      <c r="D11" s="64">
         <v>2.5</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H11" s="27">
-        <v>1680</v>
+        <v>420</v>
       </c>
       <c r="I11" s="27">
         <v>158</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" ref="J11:J24" si="0">H11*I11</f>
-        <v>265440</v>
+        <f t="shared" ref="J11:J32" si="0">H11*I11</f>
+        <v>66360</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" ref="K11:K22" si="1">+(I11/$I$34)-((SUM($J$26:$J$32)/$I$34)/$G$27)*3.5</f>
-        <v>15.247369189831133</v>
+        <f t="shared" ref="K11:K30" si="1">+(I11/$I$42)-((SUM($J$34:$J$40)/$I$42)/$G$35)*3.5</f>
+        <v>15.322030534545062</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="31"/>
@@ -1642,8 +1688,8 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
     </row>
     <row r="12" spans="1:21" ht="16">
       <c r="A12" s="22" t="s">
@@ -1653,44 +1699,44 @@
         <v>45309</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="81">
+        <v>56</v>
+      </c>
+      <c r="D12" s="64">
         <v>2.5</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H12" s="27">
-        <v>1260</v>
+        <v>420</v>
       </c>
       <c r="I12" s="27">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J12" s="28">
         <f t="shared" si="0"/>
-        <v>195300</v>
+        <v>66360</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="1"/>
-        <v>14.836410285721545</v>
+        <v>15.322030534545062</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="31"/>
-      <c r="N12" s="37"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="33"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
     </row>
     <row r="13" spans="1:21" ht="16">
       <c r="A13" s="22" t="s">
@@ -1700,33 +1746,33 @@
         <v>45309</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="81">
+        <v>57</v>
+      </c>
+      <c r="D13" s="64">
         <v>2.5</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H13" s="27">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="I13" s="27">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="0"/>
-        <v>134400</v>
+        <v>66360</v>
       </c>
       <c r="K13" s="29">
         <f t="shared" si="1"/>
-        <v>15.521341792570858</v>
+        <v>15.322030534545062</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="31"/>
@@ -1736,8 +1782,8 @@
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
       <c r="S13" s="35"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="1:21" ht="16">
       <c r="A14" s="22" t="s">
@@ -1746,34 +1792,34 @@
       <c r="B14" s="23">
         <v>45309</v>
       </c>
-      <c r="C14" s="24">
-        <v>2162</v>
-      </c>
-      <c r="D14" s="81">
+      <c r="C14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="64">
         <v>2.5</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="27">
         <v>420</v>
       </c>
       <c r="I14" s="27">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J14" s="28">
         <f t="shared" si="0"/>
-        <v>54600</v>
+        <v>66360</v>
       </c>
       <c r="K14" s="29">
         <f t="shared" si="1"/>
-        <v>11.411752751474971</v>
+        <v>15.322030534545062</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
@@ -1783,8 +1829,8 @@
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="35"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="1:21" ht="16">
       <c r="A15" s="22" t="s">
@@ -1793,20 +1839,20 @@
       <c r="B15" s="23">
         <v>45309</v>
       </c>
-      <c r="C15" s="24">
-        <v>2127</v>
-      </c>
-      <c r="D15" s="81">
+      <c r="C15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="64">
         <v>2.5</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H15" s="27">
         <v>420</v>
@@ -1820,18 +1866,18 @@
       </c>
       <c r="K15" s="29">
         <f t="shared" si="1"/>
-        <v>14.836410285721545</v>
+        <v>14.911071630435474</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="33"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
     </row>
     <row r="16" spans="1:21" ht="16">
       <c r="A16" s="22" t="s">
@@ -1841,44 +1887,44 @@
         <v>45309</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="81">
+        <v>60</v>
+      </c>
+      <c r="D16" s="64">
         <v>2.5</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="27">
-        <v>838</v>
+        <v>420</v>
       </c>
       <c r="I16" s="27">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J16" s="28">
         <f t="shared" si="0"/>
-        <v>100560</v>
+        <v>65100</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="1"/>
-        <v>10.041889737776341</v>
+        <v>14.911071630435474</v>
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="33"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
     </row>
     <row r="17" spans="1:21" ht="16">
       <c r="A17" s="22" t="s">
@@ -1887,45 +1933,45 @@
       <c r="B17" s="23">
         <v>45309</v>
       </c>
-      <c r="C17" s="24">
-        <v>2130</v>
-      </c>
-      <c r="D17" s="81">
+      <c r="C17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="64">
         <v>2.5</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="27">
         <v>420</v>
       </c>
       <c r="I17" s="27">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="J17" s="28">
         <f t="shared" si="0"/>
-        <v>52500</v>
+        <v>65100</v>
       </c>
       <c r="K17" s="29">
         <f t="shared" si="1"/>
-        <v>10.726821244625654</v>
+        <v>14.911071630435474</v>
       </c>
       <c r="L17" s="30"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="33"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
     </row>
     <row r="18" spans="1:21" ht="16">
       <c r="A18" s="22" t="s">
@@ -1934,34 +1980,34 @@
       <c r="B18" s="23">
         <v>45309</v>
       </c>
-      <c r="C18" s="24">
-        <v>2146</v>
-      </c>
-      <c r="D18" s="81">
+      <c r="C18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="64">
         <v>2.5</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="27">
         <v>420</v>
       </c>
       <c r="I18" s="27">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J18" s="28">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>67200</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="1"/>
-        <v>10.041889737776341</v>
+        <v>15.596003137284788</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="31"/>
@@ -1971,8 +2017,8 @@
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
     </row>
     <row r="19" spans="1:21" ht="16">
       <c r="A19" s="22" t="s">
@@ -1981,20 +2027,20 @@
       <c r="B19" s="23">
         <v>45309</v>
       </c>
-      <c r="C19" s="24">
-        <v>2020</v>
-      </c>
-      <c r="D19" s="81">
+      <c r="C19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="64">
         <v>2.5</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H19" s="27">
         <v>420</v>
@@ -2008,7 +2054,7 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="1"/>
-        <v>15.521341792570858</v>
+        <v>15.596003137284788</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="31"/>
@@ -2018,44 +2064,44 @@
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
     </row>
     <row r="20" spans="1:21" ht="16">
       <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="23">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="81">
+        <v>64</v>
+      </c>
+      <c r="D20" s="64">
         <v>2.5</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H20" s="27">
-        <v>838</v>
+        <v>420</v>
       </c>
       <c r="I20" s="27">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="J20" s="28">
         <f t="shared" si="0"/>
-        <v>125700</v>
+        <v>54600</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" si="1"/>
-        <v>14.151478778872232</v>
+        <v>11.4864140961889</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="31"/>
@@ -2065,44 +2111,44 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
     </row>
     <row r="21" spans="1:21" ht="16">
       <c r="A21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="23">
-        <v>45310</v>
-      </c>
-      <c r="C21" s="24">
-        <v>2153</v>
-      </c>
-      <c r="D21" s="81">
+        <v>45309</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="64">
         <v>2.5</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="27">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I21" s="27">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="0"/>
-        <v>75060</v>
+        <v>65100</v>
       </c>
       <c r="K21" s="29">
         <f t="shared" si="1"/>
-        <v>18.261067819968119</v>
+        <v>14.911071630435474</v>
       </c>
       <c r="L21" s="30"/>
       <c r="M21" s="31"/>
@@ -2112,44 +2158,44 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
     </row>
     <row r="22" spans="1:21" ht="16">
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="23">
-        <v>45310</v>
-      </c>
-      <c r="C22" s="24">
-        <v>2149</v>
-      </c>
-      <c r="D22" s="81">
+        <v>45309</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="64">
         <v>2.5</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H22" s="27">
         <v>420</v>
       </c>
       <c r="I22" s="27">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J22" s="28">
         <f t="shared" si="0"/>
-        <v>75600</v>
+        <v>50400</v>
       </c>
       <c r="K22" s="29">
         <f t="shared" si="1"/>
-        <v>18.261067819968119</v>
+        <v>10.11655108249027</v>
       </c>
       <c r="L22" s="30"/>
       <c r="M22" s="31"/>
@@ -2159,31 +2205,44 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="22">
-        <v>2</v>
-      </c>
-      <c r="I23" s="22">
-        <v>100</v>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+    </row>
+    <row r="23" spans="1:21" ht="16">
+      <c r="A23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="23">
+        <v>45309</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="27">
+        <v>418</v>
+      </c>
+      <c r="I23" s="27">
+        <v>120</v>
       </c>
       <c r="J23" s="28">
-        <f>H23*I23</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>50160</v>
       </c>
       <c r="K23" s="29">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10.11655108249027</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
@@ -2196,28 +2255,41 @@
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="22"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="38">
-        <v>5</v>
-      </c>
-      <c r="I24" s="38">
-        <v>0</v>
+    <row r="24" spans="1:21" ht="16">
+      <c r="A24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="23">
+        <v>45309</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="27">
+        <v>420</v>
+      </c>
+      <c r="I24" s="27">
+        <v>125</v>
       </c>
       <c r="J24" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="K24" s="29">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10.801482589339583</v>
       </c>
       <c r="L24" s="30"/>
       <c r="M24" s="31"/>
@@ -2227,30 +2299,46 @@
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-    </row>
-    <row r="25" spans="1:21" ht="17">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="22">
-        <f>SUM(H11:H24)</f>
-        <v>8400</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42">
-        <f>SUM(J11:J24)</f>
-        <v>1262060</v>
-      </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="44"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+    </row>
+    <row r="25" spans="1:21" ht="16">
+      <c r="A25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="23">
+        <v>45309</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="27">
+        <v>420</v>
+      </c>
+      <c r="I25" s="27">
+        <v>120</v>
+      </c>
+      <c r="J25" s="28">
+        <f t="shared" si="0"/>
+        <v>50400</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="1"/>
+        <v>10.11655108249027</v>
+      </c>
+      <c r="L25" s="30"/>
       <c r="M25" s="31"/>
       <c r="N25" s="32"/>
       <c r="O25" s="33"/>
@@ -2258,227 +2346,327 @@
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="35"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="49">
-        <v>0.06</v>
-      </c>
-      <c r="J26" s="50">
-        <f>+J25*I26</f>
-        <v>75723.599999999991</v>
-      </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+    </row>
+    <row r="26" spans="1:21" ht="16">
+      <c r="A26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="23">
+        <v>45309</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="27">
+        <v>420</v>
+      </c>
+      <c r="I26" s="27">
+        <v>160</v>
+      </c>
+      <c r="J26" s="28">
+        <f t="shared" si="0"/>
+        <v>67200</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
+        <v>15.596003137284788</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="32"/>
       <c r="O26" s="33"/>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="54">
-        <v>24158.400000000001</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50">
-        <v>60718</v>
-      </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+    </row>
+    <row r="27" spans="1:21" ht="16">
+      <c r="A27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="23">
+        <v>45310</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="27">
+        <v>420</v>
+      </c>
+      <c r="I27" s="27">
+        <v>150</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+      <c r="K27" s="29">
+        <f t="shared" si="1"/>
+        <v>14.226140123586161</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="32"/>
       <c r="O27" s="33"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="54">
-        <v>24158.400000000001</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="50">
-        <v>31552</v>
-      </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+    </row>
+    <row r="28" spans="1:21" ht="16">
+      <c r="A28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="23">
+        <v>45310</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="27">
+        <v>418</v>
+      </c>
+      <c r="I28" s="27">
+        <v>150</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="32"/>
       <c r="O28" s="33"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="50">
-        <v>26199</v>
-      </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+    </row>
+    <row r="29" spans="1:21" ht="16">
+      <c r="A29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>45310</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="27">
+        <v>417</v>
+      </c>
+      <c r="I29" s="27">
+        <v>180</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="0"/>
+        <v>75060</v>
+      </c>
+      <c r="K29" s="29">
+        <f t="shared" si="1"/>
+        <v>18.33572916468205</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
       <c r="N29" s="32"/>
       <c r="O29" s="33"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="35"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="57">
-        <v>123619.48</v>
-      </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="53"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+    </row>
+    <row r="30" spans="1:21" ht="16">
+      <c r="A30" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23">
+        <v>45310</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="27">
+        <v>420</v>
+      </c>
+      <c r="I30" s="27">
+        <v>180</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="0"/>
+        <v>75600</v>
+      </c>
+      <c r="K30" s="29">
+        <f t="shared" si="1"/>
+        <v>18.33572916468205</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="32"/>
       <c r="O30" s="33"/>
       <c r="P30" s="34"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="35"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="57">
-        <v>1690</v>
-      </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="22">
+        <v>2</v>
+      </c>
+      <c r="I31" s="22">
+        <v>100</v>
+      </c>
+      <c r="J31" s="28">
+        <f>H31*I31</f>
+        <v>200</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
       <c r="N31" s="32"/>
       <c r="O31" s="33"/>
       <c r="P31" s="34"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
       <c r="S31" s="35"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="57">
-        <v>2800</v>
-      </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="38">
+        <v>5</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="32"/>
       <c r="O32" s="33"/>
       <c r="P32" s="34"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="35"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60">
-        <f>J25-SUM(J26:J32)</f>
-        <v>939757.92</v>
-      </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+    </row>
+    <row r="33" spans="1:21" ht="17">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="22">
+        <f>SUM(H11:H32)</f>
+        <v>8400</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42">
+        <f>SUM(J11:J32)</f>
+        <v>1199360</v>
+      </c>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="31"/>
       <c r="N33" s="32"/>
       <c r="O33" s="33"/>
@@ -2486,8 +2674,8 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="35"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="45"/>
@@ -2495,74 +2683,305 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="J34" s="61">
-        <f>J33/I34</f>
-        <v>128733.96164383563</v>
+      <c r="F34" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="J34" s="50">
+        <f>+J33*I34</f>
+        <v>71961.599999999991</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="52"/>
-      <c r="M34" s="31"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="32"/>
       <c r="O34" s="33"/>
       <c r="P34" s="34"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="35"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="54">
+        <v>24158.400000000001</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50">
+        <v>60718</v>
+      </c>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
       <c r="N35" s="32"/>
       <c r="O35" s="33"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="54">
+        <v>24158.400000000001</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="50">
+        <v>31552</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="50">
+        <v>26199</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="57">
+        <v>123619.48</v>
+      </c>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="57">
+        <v>1690</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="57">
+        <v>2800</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="60">
+        <f>J33-SUM(J34:J40)</f>
+        <v>880819.92</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="22">
+        <v>7.3</v>
+      </c>
+      <c r="J42" s="61">
+        <f>J41/I42</f>
+        <v>120660.26301369864</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="L43" s="30"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T29:U29"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B6:H7"/>
     <mergeCell ref="J6:K7"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C11:C14 C15:C17 C18:C30" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>